--- a/biology/Histoire de la zoologie et de la botanique/Ludwig_Diels/Ludwig_Diels.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ludwig_Diels/Ludwig_Diels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Ludwig Emil Diels est un botaniste allemand, né le 24 septembre 1874 à Hambourg et mort le 30 novembre 1945 à Berlin.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du philologue Hermann Alexander Diels (1848-1922).
 De 1900 à 1902 avec  Ernst Georg Pritzel (1875-1946), il voyage en Afrique du Sud, à Java, en Australie et en Nouvelle-Zélande. Quelques années avant la Première Guerre mondiale, il visite la Nouvelle-Guinée et dans les années 1930, l’Équateur.
 Ses récoltes, qui comprennent de nombreuses nouvelles espèces, améliorent considérablement la connaissance de la flore de ces régions. Il fait paraître en 1906, une monographie sur les Droseraceae.
-À la suite des travaux d'Adolf Engler (1879 &amp; 1882) et en se basant sur ce qu'on nommait, en botanique, la floristique (naturalisations, aires, endémisme, etc.), l'écologie et la géographie génétique (origine et histoire des flores), Ludwig Diels a été conduit en 1908 à définir, à l'échelle du monde, les grandes régions florales au nombre de six : Holarktis, Palæotropis, Neotropis, Capensis, Australis et Antarktis[2].
+À la suite des travaux d'Adolf Engler (1879 &amp; 1882) et en se basant sur ce qu'on nommait, en botanique, la floristique (naturalisations, aires, endémisme, etc.), l'écologie et la géographie génétique (origine et histoire des flores), Ludwig Diels a été conduit en 1908 à définir, à l'échelle du monde, les grandes régions florales au nombre de six : Holarktis, Palæotropis, Neotropis, Capensis, Australis et Antarktis.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Avec Heinrich Gustav Adolf Engler (1844-1930), Hans Stubbe (1902-1989) et Kurt Noack (1888-1963), Das Pflanzenreich : Regni vegetabilis conspectus (Engelmann, Stuttgart, Harrassowitz, Wiesbaden).
 Verlagskatalog von Gebrüder Bornträger in Berlin (A. W. Hayn's Erben, Berlin, 1902).
